--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -5,6 +5,7 @@
   <sheets>
     <sheet name="account" sheetId="1" r:id="rId1"/>
     <sheet name="data" sheetId="2" r:id="rId2"/>
+    <sheet name="game_sessions" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -398,9 +399,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -425,22 +426,192 @@
         <v>admin123</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <v>somuch</v>
+      </c>
+      <c r="C3" t="str">
+        <v>123456</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C3"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>accountId</v>
+      </c>
+      <c r="C1" t="str">
+        <v>count</v>
+      </c>
+      <c r="D1" t="str">
+        <v>lastUpdated</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2" t="str">
+        <v>2026-01-03T01:26:55.076Z</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>accountId</v>
+      </c>
+      <c r="C1" t="str">
+        <v>gameType</v>
+      </c>
+      <c r="D1" t="str">
+        <v>sessionName</v>
+      </c>
+      <c r="E1" t="str">
+        <v>setup</v>
+      </c>
+      <c r="F1" t="str">
+        <v>players</v>
+      </c>
+      <c r="G1" t="str">
+        <v>gameHistory</v>
+      </c>
+      <c r="H1" t="str">
+        <v>lastUpdated</v>
+      </c>
+      <c r="I1" t="str">
+        <v>createdAt</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="str">
+        <v>tien-len</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Game 3/1/2026 10:14</v>
+      </c>
+      <c r="E2" t="str">
+        <v>{"numberOfPlayers":4,"betAmount":0,"rule":"nhat-an-bet-nhi-an-ba","betLevel1":10000,"betLevel2":5000}</v>
+      </c>
+      <c r="F2" t="str">
+        <v>[{"id":1,"name":"Người chơi 1","position":null,"money":0,"adjustments":0},{"id":2,"name":"Người chơi 2","position":null,"money":0,"adjustments":0},{"id":3,"name":"Người chơi 3","position":null,"money":0,"adjustments":0},{"id":4,"name":"Người chơi 4","position":null,"money":0,"adjustments":0}]</v>
+      </c>
+      <c r="G2" t="str">
+        <v>[{"id":1,"players":[{"id":1,"name":"Người chơi 1","position":"nhat","money":10000,"adjustments":0},{"id":2,"name":"Người chơi 2","position":"ba","money":-5000,"adjustments":0},{"id":3,"name":"Người chơi 3","position":"bet","money":-10000,"adjustments":0},{"id":4,"name":"Người chơi 4","position":"nhi","money":5000,"adjustments":0}],"setup":{"numberOfPlayers":4,"betAmount":0,"rule":"nhat-an-bet-nhi-an-ba","betLevel1":10000,"betLevel2":5000},"timestamp":"2026-01-03T03:01:06.160Z"},{"id":2,"players":[{"id":1,"name":"Người chơi 1","position":"ba","money":-5000,"adjustments":0},{"id":2,"name":"Người chơi 2","position":"nhi","money":5000,"adjustments":0},{"id":3,"name":"Người chơi 3","position":"bet","money":-10000,"adjustments":0},{"id":4,"name":"Người chơi 4","position":"nhat","money":10000,"adjustments":0}],"setup":{"numberOfPlayers":4,"betAmount":0,"rule":"nhat-an-bet-nhi-an-ba","betLevel1":10000,"betLevel2":5000},"timestamp":"2026-01-03T03:01:13.262Z"},{"id":3,"players":[{"id":1,"name":"Người chơi 1","position":"nhi","money":5000,"adjustments":0},{"id":2,"name":"Người chơi 2","position":"bet","money":-10000,"adjustments":0},{"id":3,"name":"Người chơi 3","position":"ba","money":-5000,"adjustments":0},{"id":4,"name":"Người chơi 4","position":"nhat","money":10000,"adjustments":0}],"setup":{"numberOfPlayers":4,"betAmount":0,"rule":"nhat-an-bet-nhi-an-ba","betLevel1":10000,"betLevel2":5000},"timestamp":"2026-01-03T03:07:59.596Z"},{"id":4,"players":[{"id":1,"name":"Người chơi 1","position":"nhi","money":5000,"adjustments":0},{"id":2,"name":"Người chơi 2","position":"bet","money":-10000,"adjustments":0},{"id":3,"name":"Người chơi 3","position":"ba","money":-5000,"adjustments":0},{"id":4,"name":"Người chơi 4","position":"nhat","money":10000,"adjustments":0}],"setup":{"numberOfPlayers":4,"betAmount":0,"rule":"nhat-an-bet-nhi-an-ba","betLevel1":10000,"betLevel2":5000},"timestamp":"2026-01-03T03:14:31.014Z"}]</v>
+      </c>
+      <c r="H2" t="str">
+        <v>2026-01-03T03:14:58.532Z</v>
+      </c>
+      <c r="I2" t="str">
+        <v>2026-01-03T03:01:15.361Z</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="str">
+        <v>xi-dach</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Game 3/1/2026 10:50</v>
+      </c>
+      <c r="E3" t="str">
+        <v>"{\"numberOfPlayers\":7,\"housePlayerId\":2}"</v>
+      </c>
+      <c r="F3" t="str">
+        <v>"[{\"id\":1,\"name\":\"Người chơi 1\",\"isHouse\":false,\"betAmount\":0,\"result\":null,\"money\":0},{\"id\":2,\"name\":\"Người chơi 2\",\"isHouse\":true,\"betAmount\":0,\"result\":null,\"money\":0},{\"id\":3,\"name\":\"Người chơi 3\",\"isHouse\":false,\"betAmount\":0,\"result\":null,\"money\":0},{\"id\":4,\"name\":\"Người chơi 4\",\"isHouse\":false,\"betAmount\":0,\"result\":null,\"money\":0},{\"id\":5,\"name\":\"Người chơi 5\",\"isHouse\":false,\"betAmount\":0,\"result\":null,\"money\":0},{\"id\":6,\"name\":\"Người chơi 6\",\"isHouse\":false,\"betAmount\":0,\"result\":null,\"money\":0},{\"id\":7,\"name\":\"Người chơi 7\",\"isHouse\":false,\"betAmount\":0,\"result\":null,\"money\":0}]"</v>
+      </c>
+      <c r="G3" t="str">
+        <v>"[{\"id\":1,\"players\":[{\"id\":1,\"name\":\"Người chơi 1\",\"isHouse\":false,\"betAmount\":4000,\"result\":\"win\",\"money\":4000},{\"id\":2,\"name\":\"Người chơi 2\",\"isHouse\":true,\"betAmount\":0,\"result\":null,\"money\":0},{\"id\":3,\"name\":\"Người chơi 3\",\"isHouse\":false,\"betAmount\":2000,\"result\":\"win\",\"money\":2000},{\"id\":4,\"name\":\"Người chơi 4\",\"isHouse\":false,\"betAmount\":1000,\"result\":\"lose\",\"money\":-1000},{\"id\":5,\"name\":\"Người chơi 5\",\"isHouse\":false,\"betAmount\":5000,\"result\":\"lose\",\"money\":-5000},{\"id\":6,\"name\":\"Người chơi 6\",\"isHouse\":false,\"betAmount\":2000,\"result\":\"lose\",\"money\":-2000},{\"id\":7,\"name\":\"Người chơi 7\",\"isHouse\":false,\"betAmount\":2000,\"result\":\"win\",\"money\":2000}],\"setup\":{\"numberOfPlayers\":7,\"housePlayerId\":2},\"timestamp\":\"2026-01-03T03:49:20.218Z\"}]"</v>
+      </c>
+      <c r="H3" t="str">
+        <v>2026-01-03T03:50:34.719Z</v>
+      </c>
+      <c r="I3" t="str">
+        <v>2026-01-03T03:45:53.394Z</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="str">
+        <v>kach-te</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Game 3/1/2026 11:07</v>
+      </c>
+      <c r="E4" t="str">
+        <v>"{\"numberOfPlayers\":4,\"defaultBetAmount\":5000,\"sapLangBetAmount\":10000}"</v>
+      </c>
+      <c r="F4" t="str">
+        <v>"[{\"id\":1,\"name\":\"Người chơi 1\",\"isWinner\":false,\"winType\":null,\"money\":-5000},{\"id\":2,\"name\":\"Người chơi 2\",\"isWinner\":false,\"winType\":null,\"money\":-5000},{\"id\":3,\"name\":\"Người chơi 3\",\"isWinner\":false,\"winType\":null,\"money\":-5000},{\"id\":4,\"name\":\"Người chơi 4\",\"isWinner\":true,\"winType\":\"normal\",\"money\":15000}]"</v>
+      </c>
+      <c r="G4" t="str">
+        <v>"[{\"id\":1,\"players\":[{\"id\":1,\"name\":\"Người chơi 1\",\"isWinner\":true,\"winType\":\"normal\",\"money\":15000},{\"id\":2,\"name\":\"Người chơi 2\",\"isWinner\":false,\"winType\":null,\"money\":-5000},{\"id\":3,\"name\":\"Người chơi 3\",\"isWinner\":false,\"winType\":null,\"money\":-5000},{\"id\":4,\"name\":\"Người chơi 4\",\"isWinner\":false,\"winType\":null,\"money\":-5000}],\"setup\":{\"numberOfPlayers\":4,\"defaultBetAmount\":5000,\"sapLangBetAmount\":10000},\"timestamp\":\"2026-01-03T04:06:37.956Z\"},{\"id\":2,\"players\":[{\"id\":1,\"name\":\"Người chơi 1\",\"isWinner\":false,\"winType\":null,\"money\":-5000},{\"id\":2,\"name\":\"Người chơi 2\",\"isWinner\":false,\"winType\":null,\"money\":-5000},{\"id\":3,\"name\":\"Người chơi 3\",\"isWinner\":false,\"winType\":null,\"money\":-5000},{\"id\":4,\"name\":\"Người chơi 4\",\"isWinner\":true,\"winType\":\"normal\",\"money\":15000}],\"setup\":{\"numberOfPlayers\":4,\"defaultBetAmount\":5000,\"sapLangBetAmount\":10000},\"timestamp\":\"2026-01-03T04:06:57.434Z\"},{\"id\":3,\"players\":[{\"id\":1,\"name\":\"Người chơi 1\",\"isWinner\":false,\"winType\":null,\"money\":-5000},{\"id\":2,\"name\":\"Người chơi 2\",\"isWinner\":false,\"winType\":null,\"money\":-5000},{\"id\":3,\"name\":\"Người chơi 3\",\"isWinner\":false,\"winType\":null,\"money\":-5000},{\"id\":4,\"name\":\"Người chơi 4\",\"isWinner\":true,\"winType\":\"normal\",\"money\":15000}],\"setup\":{\"numberOfPlayers\":4,\"defaultBetAmount\":5000,\"sapLangBetAmount\":10000},\"timestamp\":\"2026-01-03T04:07:04.793Z\"},{\"id\":4,\"players\":[{\"id\":1,\"name\":\"Người chơi 1\",\"isWinner\":false,\"winType\":null,\"money\":-5000},{\"id\":2,\"name\":\"Người chơi 2\",\"isWinner\":false,\"winType\":null,\"money\":-5000},{\"id\":3,\"name\":\"Người chơi 3\",\"isWinner\":false,\"winType\":null,\"money\":-5000},{\"id\":4,\"name\":\"Người chơi 4\",\"isWinner\":true,\"winType\":\"normal\",\"money\":15000}],\"setup\":{\"numberOfPlayers\":4,\"defaultBetAmount\":5000,\"sapLangBetAmount\":10000},\"timestamp\":\"2026-01-03T04:07:15.969Z\"},{\"id\":5,\"players\":[{\"id\":1,\"name\":\"Người chơi 1\",\"isWinner\":false,\"winType\":null,\"money\":-5000},{\"id\":2,\"name\":\"Người chơi 2\",\"isWinner\":false,\"winType\":null,\"money\":-5000},{\"id\":3,\"name\":\"Người chơi 3\",\"isWinner\":false,\"winType\":null,\"money\":-5000},{\"id\":4,\"name\":\"Người chơi 4\",\"isWinner\":true,\"winType\":\"normal\",\"money\":15000}],\"setup\":{\"numberOfPlayers\":4,\"defaultBetAmount\":5000,\"sapLangBetAmount\":10000},\"timestamp\":\"2026-01-03T04:07:19.064Z\"},{\"id\":6,\"players\":[{\"id\":1,\"name\":\"Người chơi 1\",\"isWinner\":false,\"winType\":null,\"money\":-5000},{\"id\":2,\"name\":\"Người chơi 2\",\"isWinner\":false,\"winType\":null,\"money\":-5000},{\"id\":3,\"name\":\"Người chơi 3\",\"isWinner\":false,\"winType\":null,\"money\":-5000},{\"id\":4,\"name\":\"Người chơi 4\",\"isWinner\":true,\"winType\":\"normal\",\"money\":15000}],\"setup\":{\"numberOfPlayers\":4,\"defaultBetAmount\":5000,\"sapLangBetAmount\":10000},\"timestamp\":\"2026-01-03T04:07:21.476Z\"}]"</v>
+      </c>
+      <c r="H4" t="str">
+        <v>2026-01-03T04:07:23.533Z</v>
+      </c>
+      <c r="I4" t="str">
+        <v>2026-01-03T04:06:34.944Z</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:I4"/>
   </ignoredErrors>
 </worksheet>
 </file>